--- a/static/inputData/product_Details.xlsx
+++ b/static/inputData/product_Details.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Product_Name</t>
   </si>
@@ -28,137 +28,86 @@
     <t>API_with_strength</t>
   </si>
   <si>
-    <t>Minimum_Batch_size</t>
-  </si>
-  <si>
     <t>MRDD</t>
   </si>
   <si>
+    <t>NOEL</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>TABLETS</t>
+  </si>
+  <si>
+    <t>PDE_VALUE</t>
+  </si>
+  <si>
+    <t>LRDD_MG</t>
+  </si>
+  <si>
+    <t>LRDD_NOS</t>
+  </si>
+  <si>
+    <t>Minimum_Batch_size_MG</t>
+  </si>
+  <si>
+    <t>Minimum_Batch_size_NOS</t>
+  </si>
+  <si>
     <t>LD50</t>
-  </si>
-  <si>
-    <t>NOEL</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>FF</t>
-  </si>
-  <si>
-    <t>GG</t>
-  </si>
-  <si>
-    <t>HH</t>
-  </si>
-  <si>
-    <t>TABLETS</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>6000000</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>906565</t>
-  </si>
-  <si>
-    <t>9000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -206,13 +155,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -221,6 +184,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -299,6 +267,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -333,6 +302,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -508,14 +478,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,224 +501,340 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>600000</v>
+      </c>
+      <c r="E2">
+        <v>600000</v>
+      </c>
+      <c r="F2">
+        <v>39000000</v>
+      </c>
+      <c r="G2">
+        <v>0.2</v>
+      </c>
+      <c r="H2">
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <v>120</v>
+      </c>
+      <c r="J2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K2">
+        <v>800</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L9" si="0">K2*5.6*0.0001*70</f>
+        <v>31.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>600000</v>
+      </c>
+      <c r="E3">
+        <v>600000</v>
+      </c>
+      <c r="F3">
+        <v>39000000</v>
+      </c>
+      <c r="G3">
+        <v>0.4</v>
+      </c>
+      <c r="H3">
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <v>60</v>
+      </c>
+      <c r="J3">
+        <v>1E-3</v>
+      </c>
+      <c r="K3">
+        <v>800</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>31.36</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>400000</v>
+      </c>
+      <c r="E4">
+        <v>400000</v>
+      </c>
+      <c r="F4">
+        <v>44000000</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K4">
+        <v>800</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>31.36</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>600000</v>
+      </c>
+      <c r="E5">
+        <v>600000</v>
+      </c>
+      <c r="F5">
+        <v>39000000</v>
+      </c>
+      <c r="G5">
+        <v>0.2</v>
+      </c>
+      <c r="H5">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
+      <c r="I5">
+        <v>120</v>
+      </c>
+      <c r="J5">
+        <v>1E-3</v>
+      </c>
+      <c r="K5">
+        <v>800</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>31.36</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>600000</v>
+      </c>
+      <c r="E6">
+        <v>600000</v>
+      </c>
+      <c r="F6">
+        <v>39000000</v>
+      </c>
+      <c r="G6">
+        <v>0.4</v>
+      </c>
+      <c r="H6">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
+      <c r="I6">
+        <v>60</v>
+      </c>
+      <c r="J6">
+        <v>1E-3</v>
+      </c>
+      <c r="K6">
+        <v>800</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>31.36</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>400000</v>
+      </c>
+      <c r="E7">
+        <v>400000</v>
+      </c>
+      <c r="F7">
+        <v>44000000</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>1.667</v>
+      </c>
+      <c r="K7">
+        <v>800</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>31.36</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>400000</v>
+      </c>
+      <c r="E8">
+        <v>600000</v>
+      </c>
+      <c r="F8">
+        <v>44000000</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
+      <c r="I8">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>0.67</v>
+      </c>
+      <c r="K8">
+        <v>800</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>31.36</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>400000</v>
+      </c>
+      <c r="E9">
+        <v>600000</v>
+      </c>
+      <c r="F9">
+        <v>44000000</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>0.67</v>
+      </c>
+      <c r="K9">
+        <v>800</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>31.36</v>
       </c>
     </row>
   </sheetData>
